--- a/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F8B789-512E-4A85-83E0-37F33B6DA08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62E0DE3-3101-49B7-BBCF-D64654E4763C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -942,7 +942,7 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1498,7 +1498,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="21">
         <f ca="1">NOW()</f>
-        <v>45568.401308912034</v>
+        <v>45572.61823078704</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -1553,7 +1553,7 @@
   </sheetPr>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrobert\Downloads\deik\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62E0DE3-3101-49B7-BBCF-D64654E4763C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3B03EC-786C-4195-BC18-E99436157FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -515,7 +515,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -535,12 +535,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -559,6 +556,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -590,7 +590,7 @@
     <sortCondition ref="A3:A38"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.09])</totalsRowFormula>
     </tableColumn>
@@ -630,7 +630,7 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.09])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -641,9 +641,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -681,7 +681,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -787,7 +787,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -929,7 +929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -942,22 +942,22 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="1.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="2" max="2" width="1.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="1.1796875" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" customWidth="1"/>
+    <col min="6" max="6" width="1.1796875" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>93</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>94</v>
       </c>
@@ -985,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>25</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>29</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>31</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>33</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>35</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
@@ -1108,10 +1108,10 @@
       <c r="F11" s="6"/>
       <c r="G11" s="12">
         <f>VLOOKUP(A11,Táblázat3[],15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>39</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>41</v>
       </c>
@@ -1136,10 +1136,10 @@
       <c r="F13" s="6"/>
       <c r="G13" s="12">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>43</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>45</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>47</v>
       </c>
@@ -1178,10 +1178,10 @@
       <c r="F16" s="6"/>
       <c r="G16" s="12">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>49</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>51</v>
       </c>
@@ -1206,10 +1206,10 @@
       <c r="F18" s="6"/>
       <c r="G18" s="12">
         <f>VLOOKUP(A18,Táblázat3[],15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>53</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>55</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>57</v>
       </c>
@@ -1248,10 +1248,10 @@
       <c r="F21" s="6"/>
       <c r="G21" s="12">
         <f>VLOOKUP(A21,Táblázat3[],15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>59</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>61</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>63</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>65</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>67</v>
       </c>
@@ -1318,10 +1318,10 @@
       <c r="F26" s="10"/>
       <c r="G26" s="12">
         <f>VLOOKUP(A26,Táblázat3[],15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>69</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>71</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>73</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>75</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>77</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>79</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>81</v>
       </c>
@@ -1416,10 +1416,10 @@
       <c r="F33" s="10"/>
       <c r="G33" s="12">
         <f>VLOOKUP(A33,Táblázat3[],15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>83</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>85</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>87</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>89</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>91</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="14" t="s">
@@ -1498,12 +1498,12 @@
       <c r="D39" s="8"/>
       <c r="E39" s="21">
         <f ca="1">NOW()</f>
-        <v>45572.61823078704</v>
+        <v>45575.681118287037</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="14"/>
@@ -1512,7 +1512,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="14" t="s">
@@ -1523,7 +1523,7 @@
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1553,23 +1553,23 @@
   </sheetPr>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="24">
         <v>2023</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2100,14 +2100,14 @@
       </c>
       <c r="O11">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>38</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2204,14 +2204,14 @@
       </c>
       <c r="O13">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>42</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2360,14 +2360,14 @@
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" t="s">
         <v>48</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2464,14 +2464,14 @@
       </c>
       <c r="O18">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="s">
         <v>52</v>
       </c>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2620,14 +2620,14 @@
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" t="s">
         <v>58</v>
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2880,14 +2880,14 @@
       </c>
       <c r="O26">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="s">
         <v>68</v>
       </c>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3244,14 +3244,14 @@
       </c>
       <c r="O33">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33" t="s">
         <v>82</v>
       </c>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="F39">
         <f>SUM(Táblázat3[2024.10.07])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G39">
         <f>SUM(Táblázat3[2024.10.14])</f>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="O39">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrobert\Downloads\deik\me\materials\NLP-I\jelenlet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3B03EC-786C-4195-BC18-E99436157FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844437C-53AE-465C-A058-3F8F5883A120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -535,7 +535,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -641,9 +641,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -681,7 +681,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -787,7 +787,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -929,7 +929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -946,18 +946,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" customWidth="1"/>
-    <col min="2" max="2" width="1.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="1.1796875" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
-    <col min="6" max="6" width="1.1796875" customWidth="1"/>
-    <col min="7" max="7" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="1.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="1.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>93</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>94</v>
       </c>
@@ -985,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
@@ -1010,10 +1010,10 @@
       <c r="F4" s="6"/>
       <c r="G4" s="12">
         <f>VLOOKUP(A4,Táblázat3[],15)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>25</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>29</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>31</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>33</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>35</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>39</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>41</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>43</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>45</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>47</v>
       </c>
@@ -1178,10 +1178,10 @@
       <c r="F16" s="6"/>
       <c r="G16" s="12">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>49</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>51</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>53</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>55</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>57</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>59</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>61</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>63</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>65</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>67</v>
       </c>
@@ -1318,10 +1318,10 @@
       <c r="F26" s="10"/>
       <c r="G26" s="12">
         <f>VLOOKUP(A26,Táblázat3[],15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>69</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>71</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>73</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>75</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>77</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>79</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>81</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>83</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>85</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>87</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>89</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>91</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="14" t="s">
@@ -1498,12 +1498,12 @@
       <c r="D39" s="8"/>
       <c r="E39" s="21">
         <f ca="1">NOW()</f>
-        <v>45575.681118287037</v>
+        <v>45586.56815983796</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="14"/>
@@ -1512,7 +1512,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="14" t="s">
@@ -1523,7 +1523,7 @@
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1557,19 +1557,19 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24">
         <v>2023</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1736,14 +1736,14 @@
       </c>
       <c r="O4">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2360,14 +2360,14 @@
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P16" t="s">
         <v>48</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2880,14 +2880,14 @@
       </c>
       <c r="O26">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" t="s">
         <v>68</v>
       </c>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="G39">
         <f>SUM(Táblázat3[2024.10.14])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <f>SUM(Táblázat3[2024.10.28])</f>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="O39">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844437C-53AE-465C-A058-3F8F5883A120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D8A670-5E6F-44C8-8E45-9DC9A28DAFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
   <si>
     <t>Név</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>Signature</t>
+  </si>
+  <si>
+    <t>Illnes more time</t>
   </si>
 </sst>
 </file>
@@ -539,6 +542,15 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -556,15 +568,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="dd/mmm"/>
@@ -590,7 +593,7 @@
     <sortCondition ref="A3:A38"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="1" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.09])</totalsRowFormula>
     </tableColumn>
@@ -630,7 +633,7 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.09])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -1498,7 +1501,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="21">
         <f ca="1">NOW()</f>
-        <v>45586.56815983796</v>
+        <v>45593.551332407405</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -1551,13 +1554,13 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,9 +1572,9 @@
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="24">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1589,7 +1592,7 @@
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1691,7 +1694,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1743,7 +1746,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1795,7 +1798,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1847,7 +1850,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1899,7 +1902,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1951,7 +1954,7 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2003,7 +2006,7 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -2055,7 +2058,7 @@
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2107,7 +2110,7 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2159,7 +2162,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2211,7 +2214,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2263,7 +2266,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2315,7 +2318,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -2365,7 +2368,9 @@
       <c r="P16" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="1"/>
+      <c r="R16" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">

--- a/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D8A670-5E6F-44C8-8E45-9DC9A28DAFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F67EF0B-5C80-4688-9195-D6006206234C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -316,20 +316,20 @@
     <t>TBVUIN</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Neptun code</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Illnes more time</t>
+  </si>
+  <si>
     <t>INTRODUCTION TO NLP
-ATTENDANCE SHEET</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Neptun code</t>
-  </si>
-  <si>
-    <t>Signature</t>
-  </si>
-  <si>
-    <t>Illnes more time</t>
+ATTENDANCE SHEET - 1820</t>
   </si>
 </sst>
 </file>
@@ -547,12 +547,6 @@
     <dxf>
       <font>
         <b/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -568,6 +562,12 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="dd/mmm"/>
@@ -593,7 +593,7 @@
     <sortCondition ref="A3:A38"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="1" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.09])</totalsRowFormula>
     </tableColumn>
@@ -945,8 +945,8 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +962,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -973,15 +973,15 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
@@ -1167,7 +1167,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="12">
         <f>VLOOKUP(A15,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="12">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="12">
         <f>VLOOKUP(A26,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="12">
         <f>VLOOKUP(A35,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="21">
         <f ca="1">NOW()</f>
-        <v>45593.551332407405</v>
+        <v>45596.348454398147</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -1556,11 +1556,11 @@
   </sheetPr>
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="O15">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="s">
         <v>46</v>
@@ -2341,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2363,13 +2363,13 @@
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P16" t="s">
         <v>48</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="O26">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26" t="s">
         <v>68</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="O35">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="s">
         <v>86</v>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="H39">
         <f>SUM(Táblázat3[2024.10.28])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <f>SUM(Táblázat3[2024.11.04])</f>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="O39">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F67EF0B-5C80-4688-9195-D6006206234C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79868F3F-D88C-41D5-B758-D9BCA62AD89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -542,9 +542,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -562,6 +559,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -593,7 +593,7 @@
     <sortCondition ref="A3:A38"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.09])</totalsRowFormula>
     </tableColumn>
@@ -633,7 +633,7 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.09])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
@@ -945,7 +945,7 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -1083,7 +1083,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="12">
         <f>VLOOKUP(A9,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1139,7 +1139,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="12">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="12">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="12">
         <f>VLOOKUP(A22,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="12">
         <f>VLOOKUP(A24,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1307,7 +1307,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="12">
         <f>VLOOKUP(A25,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="12">
         <f>VLOOKUP(A27,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="12">
         <f>VLOOKUP(A28,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="21">
         <f ca="1">NOW()</f>
-        <v>45596.348454398147</v>
+        <v>45607.499097569445</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -1557,10 +1557,10 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="O9">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>34</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="O13">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="s">
         <v>42</v>
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P16" t="s">
         <v>48</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="O22">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" t="s">
         <v>60</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="O24">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" t="s">
         <v>64</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="O25">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P25" t="s">
         <v>66</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="O27">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="s">
         <v>70</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="O28">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" t="s">
         <v>72</v>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="I39">
         <f>SUM(Táblázat3[2024.11.04])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J39">
         <f>SUM(Táblázat3[2024.11.11])</f>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="O39">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79868F3F-D88C-41D5-B758-D9BCA62AD89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C21F02-5EAA-4A30-ADE8-C3D187D2CFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -1097,7 +1097,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="12">
         <f>VLOOKUP(A10,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="12">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="12">
         <f>VLOOKUP(A21,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="12">
         <f>VLOOKUP(A29,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="12">
         <f>VLOOKUP(A32,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="12">
         <f>VLOOKUP(A37,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="21">
         <f ca="1">NOW()</f>
-        <v>45607.499097569445</v>
+        <v>45614.411449537038</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -1557,10 +1557,10 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="O10">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
         <v>36</v>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P16" t="s">
         <v>48</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" t="s">
         <v>58</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="O29">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="s">
         <v>74</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="O32">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="s">
         <v>80</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="O37">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" t="s">
         <v>90</v>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="J39">
         <f>SUM(Táblázat3[2024.11.11])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K39">
         <f>SUM(Táblázat3[2024.11.18])</f>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="O39">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C21F02-5EAA-4A30-ADE8-C3D187D2CFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5575EB-E9DE-4AA2-992D-BF7243009E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>Név</t>
   </si>
@@ -330,6 +330,9 @@
   <si>
     <t>INTRODUCTION TO NLP
 ATTENDANCE SHEET - 1820</t>
+  </si>
+  <si>
+    <t>Mark</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -559,6 +562,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -587,13 +593,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:P39" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A2:P38" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:Q39" totalsRowCount="1" headerRowDxfId="4">
+  <autoFilter ref="A2:Q38" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P38">
     <sortCondition ref="A3:A38"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="3" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.09])</totalsRowFormula>
     </tableColumn>
@@ -633,11 +639,12 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.09])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="2">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
+    <tableColumn id="15" xr3:uid="{1288B8D8-25A7-44DE-A6F7-CCDC08A0CC45}" name="Mark" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -946,7 +953,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="E39" sqref="E39:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1062,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="12">
         <f>VLOOKUP(A7,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1181,7 +1188,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="12">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1195,7 +1202,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="12">
         <f>VLOOKUP(A17,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1251,7 +1258,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="12">
         <f>VLOOKUP(A21,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1447,7 +1454,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="12">
         <f>VLOOKUP(A35,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1461,7 +1468,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="12">
         <f>VLOOKUP(A36,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1501,7 +1508,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="21">
         <f ca="1">NOW()</f>
-        <v>45614.411449537038</v>
+        <v>45620.364834490741</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -1560,7 +1567,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,6 +1577,7 @@
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1591,6 +1599,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1640,6 +1649,9 @@
       </c>
       <c r="P2" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1882,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1895,12 +1907,14 @@
       </c>
       <c r="O7">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2350,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2363,7 +2377,7 @@
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P16" t="s">
         <v>48</v>
@@ -2404,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2417,7 +2431,7 @@
       </c>
       <c r="O17">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="s">
         <v>50</v>
@@ -2526,7 +2540,9 @@
       <c r="P19" t="s">
         <v>54</v>
       </c>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2612,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2625,7 +2641,7 @@
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P21" t="s">
         <v>58</v>
@@ -2682,7 +2698,9 @@
       <c r="P22" t="s">
         <v>60</v>
       </c>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -3340,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3353,7 +3371,7 @@
       </c>
       <c r="O35">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" t="s">
         <v>86</v>
@@ -3392,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3405,7 +3423,7 @@
       </c>
       <c r="O36">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="s">
         <v>88</v>
@@ -3558,7 +3576,7 @@
       </c>
       <c r="K39">
         <f>SUM(Táblázat3[2024.11.18])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L39">
         <f>SUM(Táblázat3[2024.11.25])</f>
@@ -3574,12 +3592,12 @@
       </c>
       <c r="O39">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5575EB-E9DE-4AA2-992D-BF7243009E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC5580-E09D-4F5B-865D-19EC1A06E581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -545,6 +545,12 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -562,12 +568,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -599,7 +599,7 @@
     <sortCondition ref="A3:A38"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.09])</totalsRowFormula>
     </tableColumn>
@@ -639,12 +639,12 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.09])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="2">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
-    <tableColumn id="15" xr3:uid="{1288B8D8-25A7-44DE-A6F7-CCDC08A0CC45}" name="Mark" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{1288B8D8-25A7-44DE-A6F7-CCDC08A0CC45}" name="Mark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -952,7 +952,7 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E39" sqref="E39:G39"/>
     </sheetView>
   </sheetViews>
@@ -1118,7 +1118,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="12">
         <f>VLOOKUP(A11,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -1146,7 +1146,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="12">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="12">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="12">
         <f>VLOOKUP(A20,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="21">
         <f ca="1">NOW()</f>
-        <v>45620.364834490741</v>
+        <v>45623.398951736111</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -1563,11 +1563,11 @@
   </sheetPr>
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,6 +1578,7 @@
     <col min="8" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1808,7 +1809,9 @@
       <c r="P5" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2107,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2117,7 +2120,7 @@
       </c>
       <c r="O11">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="s">
         <v>38</v>
@@ -2211,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2221,7 +2224,7 @@
       </c>
       <c r="O13">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13" t="s">
         <v>42</v>
@@ -2367,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2377,7 +2380,7 @@
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P16" t="s">
         <v>48</v>
@@ -2436,7 +2439,9 @@
       <c r="P17" t="s">
         <v>50</v>
       </c>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2579,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2589,7 +2594,7 @@
       </c>
       <c r="O20">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="s">
         <v>56</v>
@@ -3168,7 +3173,9 @@
       <c r="P31" t="s">
         <v>78</v>
       </c>
-      <c r="Q31" s="1"/>
+      <c r="Q31" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -3220,7 +3227,9 @@
       <c r="P32" t="s">
         <v>80</v>
       </c>
-      <c r="Q32" s="1"/>
+      <c r="Q32" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3376,7 +3385,9 @@
       <c r="P35" t="s">
         <v>86</v>
       </c>
-      <c r="Q35" s="1"/>
+      <c r="Q35" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -3580,7 +3591,7 @@
       </c>
       <c r="L39">
         <f>SUM(Táblázat3[2024.11.25])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M39">
         <f>SUM(Táblázat3[2024.12.02])</f>
@@ -3592,7 +3603,7 @@
       </c>
       <c r="O39">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC5580-E09D-4F5B-865D-19EC1A06E581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F4D663-3174-44E7-B65C-B142701C6281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -545,12 +545,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -568,6 +562,12 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -599,7 +599,7 @@
     <sortCondition ref="A3:A38"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="3" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.09])</totalsRowFormula>
     </tableColumn>
@@ -639,12 +639,12 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.09" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.09])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="2">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
-    <tableColumn id="15" xr3:uid="{1288B8D8-25A7-44DE-A6F7-CCDC08A0CC45}" name="Mark" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{1288B8D8-25A7-44DE-A6F7-CCDC08A0CC45}" name="Mark" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1508,7 +1508,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="21">
         <f ca="1">NOW()</f>
-        <v>45623.398951736111</v>
+        <v>45628.499377430555</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -1567,7 +1567,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,7 +2177,9 @@
       <c r="P12" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2809,7 +2811,9 @@
       <c r="P24" t="s">
         <v>64</v>
       </c>
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">

--- a/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F4D663-3174-44E7-B65C-B142701C6281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A428C4F1-6061-4273-8740-906737071F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -1020,7 +1020,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="12">
         <f>VLOOKUP(A4,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="12">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1132,7 +1132,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="12">
         <f>VLOOKUP(A12,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1146,7 +1146,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="12">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1160,7 +1160,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="12">
         <f>VLOOKUP(A14,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="12">
         <f>VLOOKUP(A15,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="12">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="12">
         <f>VLOOKUP(A20,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="12">
         <f>VLOOKUP(A34,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="12">
         <f>VLOOKUP(A37,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="21">
         <f ca="1">NOW()</f>
-        <v>45628.499377430555</v>
+        <v>45629.466171412038</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -1567,7 +1567,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P42" sqref="P42"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,14 +1745,14 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="s">
         <v>24</v>
@@ -1797,14 +1797,14 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
         <v>26</v>
@@ -2165,14 +2165,14 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="s">
         <v>40</v>
@@ -2219,14 +2219,14 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13" t="s">
         <v>42</v>
@@ -2271,14 +2271,14 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="s">
         <v>44</v>
@@ -2323,14 +2323,14 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="s">
         <v>46</v>
@@ -2375,14 +2375,14 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P16" t="s">
         <v>48</v>
@@ -2589,14 +2589,14 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" t="s">
         <v>56</v>
@@ -3325,14 +3325,14 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="s">
         <v>84</v>
@@ -3483,14 +3483,14 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
         <f>SUM(Táblázat3[[#This Row],[2024.09.09]:[2024.12.09]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P37" t="s">
         <v>90</v>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="M39">
         <f>SUM(Táblázat3[2024.12.02])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N39">
         <f>SUM(Táblázat3[2024.12.09])</f>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="O39">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A428C4F1-6061-4273-8740-906737071F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE515BD3-356E-4BD1-BD35-C4253826E060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
   <si>
     <t>Név</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Mark</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1514,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="21">
         <f ca="1">NOW()</f>
-        <v>45629.466171412038</v>
+        <v>45647.558715046296</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -1567,7 +1573,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1711,9 @@
       <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1757,7 +1765,9 @@
       <c r="P4" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1863,7 +1873,9 @@
       <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1969,7 +1981,9 @@
       <c r="P8" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2021,7 +2035,9 @@
       <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2073,7 +2089,9 @@
       <c r="P10" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2125,7 +2143,9 @@
       <c r="P11" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2231,7 +2251,9 @@
       <c r="P13" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2283,7 +2305,9 @@
       <c r="P14" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2335,7 +2359,9 @@
       <c r="P15" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2387,6 +2413,9 @@
       <c r="P16" t="s">
         <v>48</v>
       </c>
+      <c r="Q16" t="s">
+        <v>100</v>
+      </c>
       <c r="R16" s="1" t="s">
         <v>96</v>
       </c>
@@ -2495,7 +2524,9 @@
       <c r="P18" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2601,7 +2632,9 @@
       <c r="P20" t="s">
         <v>56</v>
       </c>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2653,7 +2686,9 @@
       <c r="P21" t="s">
         <v>58</v>
       </c>
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2759,7 +2794,9 @@
       <c r="P23" t="s">
         <v>62</v>
       </c>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2865,7 +2902,9 @@
       <c r="P25" t="s">
         <v>66</v>
       </c>
-      <c r="Q25" s="1"/>
+      <c r="Q25" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2917,7 +2956,9 @@
       <c r="P26" t="s">
         <v>68</v>
       </c>
-      <c r="Q26" s="1"/>
+      <c r="Q26" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2969,7 +3010,9 @@
       <c r="P27" t="s">
         <v>70</v>
       </c>
-      <c r="Q27" s="1"/>
+      <c r="Q27" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3021,7 +3064,9 @@
       <c r="P28" t="s">
         <v>72</v>
       </c>
-      <c r="Q28" s="1"/>
+      <c r="Q28" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3073,7 +3118,9 @@
       <c r="P29" t="s">
         <v>74</v>
       </c>
-      <c r="Q29" s="1"/>
+      <c r="Q29" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -3125,7 +3172,9 @@
       <c r="P30" t="s">
         <v>76</v>
       </c>
-      <c r="Q30" s="1"/>
+      <c r="Q30" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3285,7 +3334,9 @@
       <c r="P33" t="s">
         <v>82</v>
       </c>
-      <c r="Q33" s="1"/>
+      <c r="Q33" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -3337,7 +3388,9 @@
       <c r="P34" t="s">
         <v>84</v>
       </c>
-      <c r="Q34" s="1"/>
+      <c r="Q34" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3443,7 +3496,9 @@
       <c r="P36" t="s">
         <v>88</v>
       </c>
-      <c r="Q36" s="1"/>
+      <c r="Q36" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -3495,7 +3550,9 @@
       <c r="P37" t="s">
         <v>90</v>
       </c>
-      <c r="Q37" s="1"/>
+      <c r="Q37" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3547,7 +3604,9 @@
       <c r="P38" t="s">
         <v>92</v>
       </c>
-      <c r="Q38" s="1"/>
+      <c r="Q38" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">

--- a/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_h1820.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE515BD3-356E-4BD1-BD35-C4253826E060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8FB909-A8D8-42F2-BC8F-53484BDC5ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="101">
   <si>
     <t>Név</t>
   </si>
@@ -1514,7 +1514,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="21">
         <f ca="1">NOW()</f>
-        <v>45647.558715046296</v>
+        <v>45679.614870949074</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -1570,10 +1570,10 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,8 +2035,8 @@
       <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>99</v>
+      <c r="Q9" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
